--- a/Data/Transitions/19581960Translation.xlsx
+++ b/Data/Transitions/19581960Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="571">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1688,9 +1688,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{263.0: 1.0}</t>
@@ -3740,7 +3737,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>558</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3960,7 +3957,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4290,7 +4287,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4477,7 +4474,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>558</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4961,7 +4958,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5753,7 +5750,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5951,7 +5948,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5962,7 +5959,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6281,7 +6278,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6688,7 +6685,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7392,7 +7389,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7667,7 +7664,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7788,7 +7785,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -7931,7 +7928,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8008,7 +8005,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="539" spans="1:3">
